--- a/Freq/工作测试.xlsx
+++ b/Freq/工作测试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="277">
   <si>
     <t>?SCT200T15003-Time: 10/2/18 18:32:41</t>
   </si>
@@ -734,6 +734,155 @@
   </si>
   <si>
     <t>2015-12-11-11-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?SCT200T15003-Time: 10/3/3 17:36:16</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 5  Temperature :24.766279</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 6  Temperature :24.763234</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 7  Temperature :20.790221</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 8  Temperature :20.938409</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 2  FREQUENCY:1689.855236</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 4  FREQUENCY:499.600320</t>
+  </si>
+  <si>
+    <t>nG陻</t>
+  </si>
+  <si>
+    <t>?SCT200T15003-Time: 10/3/4 18:21:27</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 5  Temperature :25.637270</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 6  Temperature :25.795660</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 7  Temperature :21.626686</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 8  Temperature :21.804767</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 2  FREQUENCY:1689.760054</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 3  FREQUENCY:537.682588</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 4  FREQUENCY:575.782584</t>
+  </si>
+  <si>
+    <t>_x0015_F</t>
+  </si>
+  <si>
+    <t>2015-12-22-08-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-12-23-09-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?SCT200T15003-Time: 10/3/5 19:14:41</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 5  Temperature :27.075270</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 6  Temperature :27.392211</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 7  Temperature :23.118339</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 8  Temperature :23.297517</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 1  FREQUENCY:2319.109462</t>
+  </si>
+  <si>
+    <t>0`&lt;</t>
+  </si>
+  <si>
+    <t>2015-12-24-10-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?SCT200T15003-Time: 10/3/6 21:46:52</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 5  Temperature :27.483643</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 6  Temperature :28.349335</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 7  Temperature :23.644288</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 8  Temperature :23.789097</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 2  FREQUENCY:1706.193482</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 3  FREQUENCY:494.282796</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 4  FREQUENCY:472.388871</t>
+  </si>
+  <si>
+    <t>_x000F_玝_x0008_</t>
+  </si>
+  <si>
+    <t>2015-12-25-12-45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?Time: 10/3/7 22:8:47</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 5  Temperature :25.536758</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 6  Temperature :25.265697</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 7  Temperature :21.471896</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 8  Temperature :21.613228</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 1  FREQUENCY:2342.651882</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 2  FREQUENCY:1689.474573</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 3  FREQUENCY:6909.258406</t>
+  </si>
+  <si>
+    <t>SCT200T15003-Channel: 4  FREQUENCY:477.129588</t>
+  </si>
+  <si>
+    <t>颫C?</t>
+  </si>
+  <si>
+    <t>2015-12-26-13-10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1127,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F375"/>
+  <dimension ref="A1:F453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="F360" sqref="F360"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="E457" sqref="E457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2744,6 +2893,346 @@
         <v>219</v>
       </c>
     </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A379" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A380" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A381" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A382" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A383" t="s">
+        <v>231</v>
+      </c>
+      <c r="F383" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A384" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A385" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A386" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A387" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A388" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A389" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A390" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A393" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A394" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A395" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A396" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A397" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A398" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A399" t="s">
+        <v>240</v>
+      </c>
+      <c r="F399" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A400" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A401" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A402" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A403" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A404" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A405" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>249</v>
+      </c>
+      <c r="F413" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>258</v>
+      </c>
+      <c r="F431" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>269</v>
+      </c>
+      <c r="F447" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A14:E14"/>
